--- a/ApolloQA/Data/RatingManual/SC/OR00022.IncreasedSplitLimitFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/SC/OR00022.IncreasedSplitLimitFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OR00022.IncreasedSplitLimitFactors" sheetId="1" r:id="R24a656de73064c05"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OR00022.IncreasedSplitLimitFactors" sheetId="1" r:id="Rde5db19ff07c418f"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -796,6 +796,20 @@
     </x:row>
     <x:row>
       <x:c t="str">
+        <x:v>$100,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$500,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$25,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.2240</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
         <x:v>$250,000</x:v>
       </x:c>
       <x:c t="str">
@@ -1562,6 +1576,20 @@
       </x:c>
       <x:c t="str">
         <x:v>1.9387</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$25,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$50,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$1,000,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.9617</x:v>
       </x:c>
     </x:row>
     <x:row>
